--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90502.42538010198</v>
+        <v>16501355.37157411</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90502.42538010198</v>
+        <v>16501355.37157411</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19579.69139587628</v>
+        <v>2376478.254477022</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19579.69139587628</v>
+        <v>2376478.254477022</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265827693.249763</v>
+        <v>50103125.12348092</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10322.19000767767</v>
+        <v>1156894.36846597</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19482.45506454593</v>
+        <v>2144921.418373397</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28592.32219776185</v>
+        <v>3144488.83449898</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37997.76917940734</v>
+        <v>4104200.071682064</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47153.1745030557</v>
+        <v>5104196.372419523</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56264.23934846129</v>
+        <v>6102257.383331156</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65463.90788860215</v>
+        <v>7145236.387770161</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74703.58051107163</v>
+        <v>8181079.246415564</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84003.28823000107</v>
+        <v>9145462.414860278</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93042.62459268351</v>
+        <v>10183914.71427708</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101967.6106510692</v>
+        <v>11218317.56962323</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110859.720515691</v>
+        <v>12251872.21729156</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119751.8303803129</v>
+        <v>13285426.86495989</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129090.6496914291</v>
+        <v>14237275.76239441</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139483.3244073784</v>
+        <v>14934885.59571889</v>
       </c>
     </row>
   </sheetData>
